--- a/results/mp/tinybert/toy-spam/confidence/126/stop-words-masking-0.2/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/toy-spam/confidence/126/stop-words-masking-0.2/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="95">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,91 +43,100 @@
     <t>poorly</t>
   </si>
   <si>
+    <t>disappointing</t>
+  </si>
+  <si>
+    <t>poor</t>
+  </si>
+  <si>
     <t>thin</t>
   </si>
   <si>
-    <t>disappointing</t>
-  </si>
-  <si>
-    <t>ripped</t>
+    <t>however</t>
+  </si>
+  <si>
+    <t>disappointed</t>
+  </si>
+  <si>
+    <t>water</t>
+  </si>
+  <si>
+    <t>broke</t>
+  </si>
+  <si>
+    <t>pool</t>
+  </si>
+  <si>
+    <t>junk</t>
+  </si>
+  <si>
+    <t>waste</t>
+  </si>
+  <si>
+    <t>instead</t>
   </si>
   <si>
     <t>returned</t>
   </si>
   <si>
-    <t>however</t>
-  </si>
-  <si>
-    <t>poor</t>
-  </si>
-  <si>
-    <t>disappointed</t>
-  </si>
-  <si>
-    <t>waste</t>
-  </si>
-  <si>
     <t>smaller</t>
   </si>
   <si>
-    <t>broke</t>
-  </si>
-  <si>
-    <t>junk</t>
-  </si>
-  <si>
-    <t>water</t>
-  </si>
-  <si>
-    <t>instead</t>
+    <t>missing</t>
+  </si>
+  <si>
+    <t>short</t>
   </si>
   <si>
     <t>small</t>
   </si>
   <si>
-    <t>missing</t>
-  </si>
-  <si>
-    <t>un</t>
+    <t>guess</t>
   </si>
   <si>
     <t>broken</t>
   </si>
   <si>
-    <t>okay</t>
-  </si>
-  <si>
-    <t>guess</t>
+    <t>less</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>fell</t>
+  </si>
+  <si>
+    <t>cheap</t>
+  </si>
+  <si>
+    <t>paint</t>
+  </si>
+  <si>
+    <t>return</t>
   </si>
   <si>
     <t>plastic</t>
   </si>
   <si>
-    <t>cheap</t>
-  </si>
-  <si>
-    <t>fell</t>
-  </si>
-  <si>
-    <t>paint</t>
-  </si>
-  <si>
     <t>pay</t>
   </si>
   <si>
-    <t>ok</t>
-  </si>
-  <si>
     <t>apart</t>
   </si>
   <si>
+    <t>di</t>
+  </si>
+  <si>
+    <t>bad</t>
+  </si>
+  <si>
     <t>difficult</t>
   </si>
   <si>
-    <t>di</t>
-  </si>
-  <si>
-    <t>bad</t>
+    <t>size</t>
+  </si>
+  <si>
+    <t>though</t>
   </si>
   <si>
     <t>bit</t>
@@ -136,45 +145,51 @@
     <t>thought</t>
   </si>
   <si>
-    <t>size</t>
-  </si>
-  <si>
-    <t>though</t>
+    <t>back</t>
+  </si>
+  <si>
+    <t>hard</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>price</t>
   </si>
   <si>
     <t>item</t>
   </si>
   <si>
-    <t>back</t>
+    <t>would</t>
   </si>
   <si>
     <t>money</t>
   </si>
   <si>
-    <t>hard</t>
-  </si>
-  <si>
-    <t>price</t>
+    <t>better</t>
+  </si>
+  <si>
+    <t>could</t>
   </si>
   <si>
     <t>work</t>
   </si>
   <si>
-    <t>would</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>could</t>
-  </si>
-  <si>
-    <t>expected</t>
+    <t>box</t>
+  </si>
+  <si>
+    <t>used</t>
   </si>
   <si>
     <t>product</t>
   </si>
   <si>
+    <t>pieces</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
     <t>3</t>
   </si>
   <si>
@@ -193,27 +208,27 @@
     <t>like</t>
   </si>
   <si>
-    <t>made</t>
+    <t>toy</t>
   </si>
   <si>
     <t>much</t>
   </si>
   <si>
-    <t>toy</t>
-  </si>
-  <si>
     <t>one</t>
   </si>
   <si>
     <t>negative</t>
   </si>
   <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>wonderful</t>
+  </si>
+  <si>
     <t>awesome</t>
   </si>
   <si>
-    <t>wonderful</t>
-  </si>
-  <si>
     <t>favorite</t>
   </si>
   <si>
@@ -223,64 +238,64 @@
     <t>classic</t>
   </si>
   <si>
+    <t>thank</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
-    <t>thank</t>
-  </si>
-  <si>
     <t>loves</t>
   </si>
   <si>
+    <t>pleased</t>
+  </si>
+  <si>
     <t>great</t>
   </si>
   <si>
+    <t>perfect</t>
+  </si>
+  <si>
     <t>loved</t>
   </si>
   <si>
+    <t>friends</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
-    <t>perfect</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
     <t>learn</t>
   </si>
   <si>
+    <t>every</t>
+  </si>
+  <si>
     <t>happy</t>
   </si>
   <si>
     <t>enjoyed</t>
   </si>
   <si>
+    <t>christmas</t>
+  </si>
+  <si>
     <t>enjoy</t>
   </si>
   <si>
-    <t>christmas</t>
-  </si>
-  <si>
-    <t>every</t>
-  </si>
-  <si>
     <t>fun</t>
   </si>
   <si>
     <t>easy</t>
   </si>
   <si>
+    <t>family</t>
+  </si>
+  <si>
     <t>game</t>
   </si>
   <si>
-    <t>family</t>
-  </si>
-  <si>
     <t>play</t>
-  </si>
-  <si>
-    <t>good</t>
   </si>
   <si>
     <t>positive</t>
@@ -641,7 +656,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q57"/>
+  <dimension ref="A1:Q61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -649,10 +664,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="J1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -710,13 +725,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9782608695652174</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="C3">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D3">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -728,19 +743,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="K3">
-        <v>0.8769230769230769</v>
+        <v>0.9259259259259259</v>
       </c>
       <c r="L3">
-        <v>57</v>
+        <v>25</v>
       </c>
       <c r="M3">
-        <v>57</v>
+        <v>25</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -752,7 +767,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -760,13 +775,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8275862068965517</v>
+        <v>0.8409090909090909</v>
       </c>
       <c r="C4">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="D4">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -778,19 +793,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="K4">
-        <v>0.875</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="L4">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M4">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -802,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -810,13 +825,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8181818181818182</v>
+        <v>0.7746478873239436</v>
       </c>
       <c r="C5">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="D5">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -828,31 +843,31 @@
         <v>0</v>
       </c>
       <c r="H5">
+        <v>16</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K5">
+        <v>0.8769230769230769</v>
+      </c>
+      <c r="L5">
+        <v>57</v>
+      </c>
+      <c r="M5">
+        <v>57</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q5">
         <v>8</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="K5">
-        <v>0.8279569892473119</v>
-      </c>
-      <c r="L5">
-        <v>77</v>
-      </c>
-      <c r="M5">
-        <v>77</v>
-      </c>
-      <c r="N5">
-        <v>1</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -860,7 +875,7 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8148148148148148</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="C6">
         <v>22</v>
@@ -878,19 +893,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="K6">
-        <v>0.8125</v>
+        <v>0.8064516129032258</v>
       </c>
       <c r="L6">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="M6">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -902,7 +917,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -910,13 +925,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7631578947368421</v>
+        <v>0.71875</v>
       </c>
       <c r="C7">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="D7">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -928,19 +943,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="K7">
-        <v>0.6981132075471698</v>
+        <v>0.765625</v>
       </c>
       <c r="L7">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="M7">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -952,7 +967,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -960,13 +975,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.734375</v>
+        <v>0.6935483870967742</v>
       </c>
       <c r="C8">
-        <v>47</v>
+        <v>129</v>
       </c>
       <c r="D8">
-        <v>47</v>
+        <v>129</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -978,19 +993,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="K8">
-        <v>0.5796269727403156</v>
+        <v>0.660377358490566</v>
       </c>
       <c r="L8">
-        <v>404</v>
+        <v>35</v>
       </c>
       <c r="M8">
-        <v>404</v>
+        <v>35</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1002,7 +1017,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>293</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1010,13 +1025,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7323943661971831</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C9">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="D9">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1028,10 +1043,10 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="K9">
         <v>0.5652173913043478</v>
@@ -1060,13 +1075,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.6881720430107527</v>
+        <v>0.6650485436893204</v>
       </c>
       <c r="C10">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="D10">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1078,19 +1093,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="K10">
-        <v>0.5352697095435685</v>
+        <v>0.563845050215208</v>
       </c>
       <c r="L10">
-        <v>258</v>
+        <v>393</v>
       </c>
       <c r="M10">
-        <v>258</v>
+        <v>393</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1102,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>224</v>
+        <v>304</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1110,13 +1125,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6486486486486487</v>
+        <v>0.6571428571428571</v>
       </c>
       <c r="C11">
-        <v>96</v>
+        <v>23</v>
       </c>
       <c r="D11">
-        <v>96</v>
+        <v>23</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1128,19 +1143,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="K11">
-        <v>0.4786885245901639</v>
+        <v>0.508298755186722</v>
       </c>
       <c r="L11">
-        <v>584</v>
+        <v>245</v>
       </c>
       <c r="M11">
-        <v>584</v>
+        <v>245</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1152,7 +1167,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>636</v>
+        <v>237</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1160,13 +1175,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.6302521008403361</v>
+        <v>0.6545454545454545</v>
       </c>
       <c r="C12">
-        <v>75</v>
+        <v>36</v>
       </c>
       <c r="D12">
-        <v>75</v>
+        <v>36</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1178,19 +1193,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="K12">
-        <v>0.3914373088685015</v>
+        <v>0.4716981132075472</v>
       </c>
       <c r="L12">
-        <v>128</v>
+        <v>25</v>
       </c>
       <c r="M12">
-        <v>128</v>
+        <v>25</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1202,7 +1217,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>199</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1210,13 +1225,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.6262135922330098</v>
+        <v>0.6486486486486487</v>
       </c>
       <c r="C13">
-        <v>129</v>
+        <v>96</v>
       </c>
       <c r="D13">
-        <v>129</v>
+        <v>96</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1228,19 +1243,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>77</v>
+        <v>52</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="K13">
-        <v>0.375</v>
+        <v>0.4655737704918033</v>
       </c>
       <c r="L13">
-        <v>45</v>
+        <v>568</v>
       </c>
       <c r="M13">
-        <v>45</v>
+        <v>568</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1252,7 +1267,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>75</v>
+        <v>652</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1260,13 +1275,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.6</v>
+        <v>0.6458333333333334</v>
       </c>
       <c r="C14">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D14">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1278,19 +1293,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="K14">
-        <v>0.3554216867469879</v>
+        <v>0.3975903614457831</v>
       </c>
       <c r="L14">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="M14">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1302,7 +1317,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>107</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1310,13 +1325,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.5952380952380952</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="C15">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D15">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1328,19 +1343,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="K15">
-        <v>0.3492063492063492</v>
+        <v>0.382262996941896</v>
       </c>
       <c r="L15">
-        <v>66</v>
+        <v>125</v>
       </c>
       <c r="M15">
-        <v>66</v>
+        <v>125</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1352,7 +1367,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>123</v>
+        <v>202</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1360,13 +1375,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.5625</v>
+        <v>0.5462184873949579</v>
       </c>
       <c r="C16">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="D16">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1378,19 +1393,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="K16">
-        <v>0.234375</v>
+        <v>0.3439153439153439</v>
       </c>
       <c r="L16">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="M16">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1402,7 +1417,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>98</v>
+        <v>124</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1410,13 +1425,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.5362318840579711</v>
+        <v>0.5111111111111111</v>
       </c>
       <c r="C17">
-        <v>185</v>
+        <v>23</v>
       </c>
       <c r="D17">
-        <v>185</v>
+        <v>23</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1428,19 +1443,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>160</v>
+        <v>22</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="K17">
-        <v>0.2167832167832168</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L17">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="M17">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1452,7 +1467,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>112</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1460,7 +1475,7 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.5333333333333333</v>
+        <v>0.4897959183673469</v>
       </c>
       <c r="C18">
         <v>24</v>
@@ -1478,19 +1493,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="K18">
-        <v>0.2063492063492063</v>
+        <v>0.28125</v>
       </c>
       <c r="L18">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="M18">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1502,7 +1517,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>100</v>
+        <v>92</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1510,13 +1525,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.5116279069767442</v>
+        <v>0.4840579710144928</v>
       </c>
       <c r="C19">
-        <v>22</v>
+        <v>167</v>
       </c>
       <c r="D19">
-        <v>22</v>
+        <v>167</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1528,19 +1543,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>21</v>
+        <v>178</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="K19">
-        <v>0.1935483870967742</v>
+        <v>0.232</v>
       </c>
       <c r="L19">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="M19">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1552,7 +1567,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>150</v>
+        <v>96</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1560,13 +1575,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.4698795180722892</v>
+        <v>0.4814814814814815</v>
       </c>
       <c r="C20">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="D20">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1578,19 +1593,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="K20">
-        <v>0.1927710843373494</v>
+        <v>0.2237762237762238</v>
       </c>
       <c r="L20">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="M20">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1602,7 +1617,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>201</v>
+        <v>111</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1610,13 +1625,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.462962962962963</v>
+        <v>0.4578313253012048</v>
       </c>
       <c r="C21">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="D21">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1628,19 +1643,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="K21">
-        <v>0.184</v>
+        <v>0.2063492063492063</v>
       </c>
       <c r="L21">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M21">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1652,7 +1667,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1660,13 +1675,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.4444444444444444</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="C22">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D22">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1678,19 +1693,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="K22">
-        <v>0.1831726555652936</v>
+        <v>0.2008032128514056</v>
       </c>
       <c r="L22">
-        <v>209</v>
+        <v>50</v>
       </c>
       <c r="M22">
-        <v>209</v>
+        <v>50</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1702,7 +1717,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>932</v>
+        <v>199</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1710,13 +1725,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.4409448818897638</v>
+        <v>0.40625</v>
       </c>
       <c r="C23">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D23">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1728,19 +1743,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="K23">
-        <v>0.1122994652406417</v>
+        <v>0.1881720430107527</v>
       </c>
       <c r="L23">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="M23">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1752,7 +1767,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>332</v>
+        <v>151</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1760,49 +1775,49 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.4218009478672986</v>
+        <v>0.4</v>
       </c>
       <c r="C24">
+        <v>22</v>
+      </c>
+      <c r="D24">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24" t="b">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>33</v>
+      </c>
+      <c r="J24" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D24">
-        <v>89</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24" t="b">
-        <v>0</v>
-      </c>
-      <c r="H24">
-        <v>122</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>85</v>
-      </c>
       <c r="K24">
-        <v>0.09285714285714286</v>
+        <v>0.1700262927256792</v>
       </c>
       <c r="L24">
-        <v>143</v>
+        <v>194</v>
       </c>
       <c r="M24">
-        <v>144</v>
+        <v>194</v>
       </c>
       <c r="N24">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O24">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>1397</v>
+        <v>947</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1810,13 +1825,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.4181818181818182</v>
+        <v>0.3981042654028436</v>
       </c>
       <c r="C25">
-        <v>23</v>
+        <v>84</v>
       </c>
       <c r="D25">
-        <v>23</v>
+        <v>84</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1828,19 +1843,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>32</v>
+        <v>127</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="K25">
-        <v>0.08913649025069638</v>
+        <v>0.1122994652406417</v>
       </c>
       <c r="L25">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="M25">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1852,7 +1867,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>327</v>
+        <v>332</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1881,28 +1896,28 @@
         <v>38</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="K26">
-        <v>0.04533333333333334</v>
+        <v>0.1086350974930362</v>
       </c>
       <c r="L26">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="M26">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="N26">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O26">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q26">
-        <v>716</v>
+        <v>320</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1910,7 +1925,7 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.3809523809523809</v>
+        <v>0.3870967741935484</v>
       </c>
       <c r="C27">
         <v>24</v>
@@ -1928,31 +1943,31 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="K27">
-        <v>0.03561253561253561</v>
+        <v>0.08842652795838751</v>
       </c>
       <c r="L27">
-        <v>25</v>
+        <v>136</v>
       </c>
       <c r="M27">
-        <v>28</v>
+        <v>139</v>
       </c>
       <c r="N27">
-        <v>0.89</v>
+        <v>0.98</v>
       </c>
       <c r="O27">
-        <v>0.11</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P27" t="b">
         <v>1</v>
       </c>
       <c r="Q27">
-        <v>677</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1960,13 +1975,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.375</v>
+        <v>0.3858267716535433</v>
       </c>
       <c r="C28">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D28">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1978,7 +1993,31 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>80</v>
+        <v>78</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="K28">
+        <v>0.05059920106524634</v>
+      </c>
+      <c r="L28">
+        <v>38</v>
+      </c>
+      <c r="M28">
+        <v>39</v>
+      </c>
+      <c r="N28">
+        <v>0.97</v>
+      </c>
+      <c r="O28">
+        <v>0.03000000000000003</v>
+      </c>
+      <c r="P28" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q28">
+        <v>713</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1986,13 +2025,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.3684210526315789</v>
+        <v>0.3809523809523809</v>
       </c>
       <c r="C29">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="D29">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2004,7 +2043,7 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>60</v>
+        <v>39</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2012,13 +2051,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.3595505617977528</v>
+        <v>0.3789473684210526</v>
       </c>
       <c r="C30">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D30">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2030,7 +2069,7 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2038,13 +2077,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.359375</v>
+        <v>0.375</v>
       </c>
       <c r="C31">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D31">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2056,7 +2095,7 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2064,13 +2103,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.3432835820895522</v>
+        <v>0.3283582089552239</v>
       </c>
       <c r="C32">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D32">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2082,7 +2121,7 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2090,13 +2129,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.2959183673469388</v>
+        <v>0.3146067415730337</v>
       </c>
       <c r="C33">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D33">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2108,7 +2147,7 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2116,13 +2155,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.2673267326732673</v>
+        <v>0.2577319587628866</v>
       </c>
       <c r="C34">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D34">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2134,7 +2173,7 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2142,13 +2181,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.2422680412371134</v>
+        <v>0.2478632478632479</v>
       </c>
       <c r="C35">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="D35">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2160,7 +2199,7 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>147</v>
+        <v>88</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2168,13 +2207,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.2307692307692308</v>
+        <v>0.2448979591836735</v>
       </c>
       <c r="C36">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D36">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2186,7 +2225,7 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>90</v>
+        <v>74</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2194,13 +2233,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.213768115942029</v>
+        <v>0.2326732673267327</v>
       </c>
       <c r="C37">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="D37">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2212,7 +2251,7 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>217</v>
+        <v>155</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2220,13 +2259,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.2</v>
+        <v>0.2142857142857143</v>
       </c>
       <c r="C38">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D38">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2238,7 +2277,7 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2246,13 +2285,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.189873417721519</v>
+        <v>0.205</v>
       </c>
       <c r="C39">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="D39">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2264,7 +2303,7 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>256</v>
+        <v>159</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2272,25 +2311,25 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.18</v>
+        <v>0.1965811965811966</v>
       </c>
       <c r="C40">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="D40">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="E40">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="F40">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="G40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H40">
-        <v>164</v>
+        <v>94</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2298,25 +2337,25 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.1786743515850144</v>
+        <v>0.1930835734870317</v>
       </c>
       <c r="C41">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="D41">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="E41">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="F41">
-        <v>0.98</v>
+        <v>0.99</v>
       </c>
       <c r="G41" t="b">
         <v>1</v>
       </c>
       <c r="H41">
-        <v>285</v>
+        <v>280</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2324,7 +2363,7 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.1677215189873418</v>
+        <v>0.1920289855072464</v>
       </c>
       <c r="C42">
         <v>53</v>
@@ -2342,7 +2381,7 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>263</v>
+        <v>223</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2350,25 +2389,25 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.1664190193164933</v>
+        <v>0.181547619047619</v>
       </c>
       <c r="C43">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="D43">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="E43">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="F43">
-        <v>0.99</v>
+        <v>0.98</v>
       </c>
       <c r="G43" t="b">
         <v>1</v>
       </c>
       <c r="H43">
-        <v>561</v>
+        <v>550</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2376,13 +2415,13 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.1635514018691589</v>
+        <v>0.1772151898734177</v>
       </c>
       <c r="C44">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="D44">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -2394,7 +2433,7 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>179</v>
+        <v>260</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2402,13 +2441,13 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.1592356687898089</v>
+        <v>0.1682242990654206</v>
       </c>
       <c r="C45">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="D45">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -2420,7 +2459,7 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>132</v>
+        <v>178</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2428,13 +2467,13 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.1510416666666667</v>
+        <v>0.1656050955414013</v>
       </c>
       <c r="C46">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D46">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -2446,7 +2485,7 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>163</v>
+        <v>131</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2454,13 +2493,13 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.1365638766519824</v>
+        <v>0.1645569620253164</v>
       </c>
       <c r="C47">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="D47">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -2472,7 +2511,7 @@
         <v>0</v>
       </c>
       <c r="H47">
-        <v>392</v>
+        <v>264</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2480,7 +2519,7 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.125</v>
+        <v>0.162303664921466</v>
       </c>
       <c r="C48">
         <v>31</v>
@@ -2498,7 +2537,7 @@
         <v>0</v>
       </c>
       <c r="H48">
-        <v>217</v>
+        <v>160</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2506,25 +2545,25 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.112781954887218</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="C49">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D49">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E49">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F49">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="G49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H49">
-        <v>236</v>
+        <v>150</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2532,25 +2571,25 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.09615384615384616</v>
+        <v>0.1390728476821192</v>
       </c>
       <c r="C50">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="D50">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="E50">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="F50">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="G50" t="b">
         <v>1</v>
       </c>
       <c r="H50">
-        <v>329</v>
+        <v>390</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2558,25 +2597,25 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.08928571428571429</v>
+        <v>0.1366120218579235</v>
       </c>
       <c r="C51">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="D51">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="E51">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F51">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H51">
-        <v>408</v>
+        <v>158</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2584,25 +2623,25 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.08757062146892655</v>
+        <v>0.1223404255319149</v>
       </c>
       <c r="C52">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D52">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="E52">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="F52">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="G52" t="b">
         <v>1</v>
       </c>
       <c r="H52">
-        <v>323</v>
+        <v>165</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2610,25 +2649,25 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.08250825082508251</v>
+        <v>0.1129032258064516</v>
       </c>
       <c r="C53">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="D53">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="E53">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="F53">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="G53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H53">
-        <v>556</v>
+        <v>220</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2636,25 +2675,25 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.06984126984126984</v>
+        <v>0.1123595505617977</v>
       </c>
       <c r="C54">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="D54">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E54">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="F54">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="G54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H54">
-        <v>293</v>
+        <v>237</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2662,25 +2701,25 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.06074766355140187</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="C55">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D55">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E55">
-        <v>0.19</v>
+        <v>0.06</v>
       </c>
       <c r="F55">
-        <v>0.8100000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G55" t="b">
         <v>1</v>
       </c>
       <c r="H55">
-        <v>402</v>
+        <v>330</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2688,25 +2727,25 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.05828220858895705</v>
+        <v>0.0894854586129754</v>
       </c>
       <c r="C56">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D56">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E56">
-        <v>0.07000000000000001</v>
+        <v>0.05</v>
       </c>
       <c r="F56">
-        <v>0.9299999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="G56" t="b">
         <v>1</v>
       </c>
       <c r="H56">
-        <v>614</v>
+        <v>407</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2714,24 +2753,128 @@
         <v>62</v>
       </c>
       <c r="B57">
+        <v>0.08732394366197183</v>
+      </c>
+      <c r="C57">
+        <v>31</v>
+      </c>
+      <c r="D57">
+        <v>31</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>1</v>
+      </c>
+      <c r="G57" t="b">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B58">
+        <v>0.08099173553719008</v>
+      </c>
+      <c r="C58">
+        <v>49</v>
+      </c>
+      <c r="D58">
+        <v>52</v>
+      </c>
+      <c r="E58">
+        <v>0.06</v>
+      </c>
+      <c r="F58">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="G58" t="b">
+        <v>1</v>
+      </c>
+      <c r="H58">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B59">
+        <v>0.06307692307692307</v>
+      </c>
+      <c r="C59">
+        <v>41</v>
+      </c>
+      <c r="D59">
+        <v>46</v>
+      </c>
+      <c r="E59">
+        <v>0.11</v>
+      </c>
+      <c r="F59">
+        <v>0.89</v>
+      </c>
+      <c r="G59" t="b">
+        <v>1</v>
+      </c>
+      <c r="H59">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B60">
+        <v>0.06264501160092807</v>
+      </c>
+      <c r="C60">
+        <v>27</v>
+      </c>
+      <c r="D60">
+        <v>30</v>
+      </c>
+      <c r="E60">
+        <v>0.1</v>
+      </c>
+      <c r="F60">
+        <v>0.9</v>
+      </c>
+      <c r="G60" t="b">
+        <v>1</v>
+      </c>
+      <c r="H60">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B61">
         <v>0.04846938775510204</v>
       </c>
-      <c r="C57">
+      <c r="C61">
         <v>38</v>
       </c>
-      <c r="D57">
+      <c r="D61">
         <v>48</v>
       </c>
-      <c r="E57">
+      <c r="E61">
         <v>0.21</v>
       </c>
-      <c r="F57">
+      <c r="F61">
         <v>0.79</v>
       </c>
-      <c r="G57" t="b">
-        <v>1</v>
-      </c>
-      <c r="H57">
+      <c r="G61" t="b">
+        <v>1</v>
+      </c>
+      <c r="H61">
         <v>746</v>
       </c>
     </row>
